--- a/public/Import_Sertifikat_Example.xlsx
+++ b/public/Import_Sertifikat_Example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="64">
   <si>
     <t>NO</t>
   </si>
@@ -53,14 +53,179 @@
     <t>Nama Dosen</t>
   </si>
   <si>
+    <t>Modul</t>
+  </si>
+  <si>
+    <t>Ruangan</t>
+  </si>
+  <si>
+    <t>No SO</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>0119101105</t>
+  </si>
+  <si>
+    <t>0119101102</t>
+  </si>
+  <si>
+    <t>0119101086</t>
+  </si>
+  <si>
+    <t>0117101165</t>
+  </si>
+  <si>
+    <t>0119101104</t>
+  </si>
+  <si>
+    <t>0119101072</t>
+  </si>
+  <si>
+    <t>0119101116</t>
+  </si>
+  <si>
+    <t>0116101211</t>
+  </si>
+  <si>
+    <t>0119101099</t>
+  </si>
+  <si>
+    <t>0119101103</t>
+  </si>
+  <si>
+    <t>0115101538</t>
+  </si>
+  <si>
+    <t>0119101101</t>
+  </si>
+  <si>
+    <t>0119101091</t>
+  </si>
+  <si>
+    <t>0119101106</t>
+  </si>
+  <si>
+    <t>40121110034</t>
+  </si>
+  <si>
+    <t>0119101089</t>
+  </si>
+  <si>
+    <t>0119101088</t>
+  </si>
+  <si>
+    <t>0119101073</t>
+  </si>
+  <si>
+    <t>0116101114</t>
+  </si>
+  <si>
+    <t>0119101136</t>
+  </si>
+  <si>
+    <t>ALYA TRINANDYA ROSHA BUN YANI</t>
+  </si>
+  <si>
+    <t>DHONA SILVI FITRIANI</t>
+  </si>
+  <si>
+    <t>VITA FATHIA LATIEF</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARDIAZ IKHSAN</t>
+  </si>
+  <si>
+    <t>FACHRI ADRIANSYAH</t>
+  </si>
+  <si>
+    <t>RAGA AHLIL FIKRI</t>
+  </si>
+  <si>
+    <t>AKBAR PRIANJAYA PRABOWO</t>
+  </si>
+  <si>
+    <t>RAVEL ALMAY HARIRI</t>
+  </si>
+  <si>
+    <t>RESMA NAMIRA ANJANI</t>
+  </si>
+  <si>
+    <t>SHELYA FITRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARISHA MANDHASARY </t>
+  </si>
+  <si>
+    <t>VINDA NURREZIVANKA RUDIANA</t>
+  </si>
+  <si>
+    <t>RISKA MARTENIA</t>
+  </si>
+  <si>
+    <t>RAMADHANI ZAFRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUPUNG PURNAMA </t>
+  </si>
+  <si>
+    <t>AQILLA FADIA HENDRI</t>
+  </si>
+  <si>
+    <t>ALSYA PUTRI SALIHA</t>
+  </si>
+  <si>
+    <t>GHEA CLARIZA SYUHADA</t>
+  </si>
+  <si>
+    <t>ALFONSIUS CH ALEXANDRO RAMBA</t>
+  </si>
+  <si>
+    <t>MESA ARMILA</t>
+  </si>
+  <si>
+    <t>AC010</t>
+  </si>
+  <si>
+    <t>REG A</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Ignatius Oki Dewa Brata, S.E., M.Si., Ak., C.A.</t>
+  </si>
+  <si>
+    <t>Mirna Dianita, S.E., M.M., Ak., Ca.</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Ganjil</t>
+  </si>
+  <si>
     <t>JP</t>
+  </si>
+  <si>
+    <t>01/S1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +236,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,12 +256,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,30 +290,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -413,141 +679,1073 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="41.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7">
+        <v>82.5</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(E2="","",IF(E2&gt;=70,"Passed","Failed"))</f>
+        <v>Passed</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" ref="F3:F21" si="0">IF(E3="","",IF(E3&gt;=70,"Passed","Failed"))</f>
+        <v>Passed</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7">
+        <v>77.5</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7">
+        <v>95</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8">
+        <v>65</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8">
+        <v>85</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="8">
+        <v>95</v>
+      </c>
+      <c r="F13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8">
+        <v>95</v>
+      </c>
+      <c r="F14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="F15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="F16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>90</v>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="F20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="7">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="5">
+        <v>44665</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E21">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7BACEBF0-496D-4B46-9283-174A960A7E3C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{30CFD666-10B5-4022-8606-53349E7577BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BACEBF0-496D-4B46-9283-174A960A7E3C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{30CFD666-10B5-4022-8606-53349E7577BC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>